--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2119402.452428942</v>
+        <v>2118690.150605897</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1230,52 +1230,52 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.817899082923868</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891593</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.11930130672232</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240809</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>44.31761724675128</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958178</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>142.731519456084</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726989</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>146.8587795251723</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693634</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T12" t="n">
         <v>36.82265945242231</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382064</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233427</v>
+        <v>135.3773744718158</v>
       </c>
       <c r="W12" t="n">
-        <v>188.4979333192471</v>
+        <v>88.55631942394362</v>
       </c>
       <c r="X12" t="n">
         <v>39.16465028640263</v>
       </c>
       <c r="Y12" t="n">
-        <v>143.9476322089122</v>
+        <v>45.23602198095764</v>
       </c>
     </row>
     <row r="13">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256615</v>
+        <v>25.28169700256616</v>
       </c>
       <c r="S13" t="n">
         <v>57.28978021311259</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0572332281108</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891593</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>114.3554345392801</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929889</v>
+        <v>16.73328122929905</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538022</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675128</v>
+        <v>44.31761724675142</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958178</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726989</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>57.67154501435309</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371297949</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
+        <v>126.65485023965</v>
+      </c>
+      <c r="T15" t="n">
+        <v>36.82265945242245</v>
+      </c>
+      <c r="U15" t="n">
         <v>188.4979333192471</v>
       </c>
-      <c r="T15" t="n">
-        <v>188.4979333192471</v>
-      </c>
-      <c r="U15" t="n">
-        <v>59.07980534382064</v>
-      </c>
       <c r="V15" t="n">
-        <v>62.50065676233427</v>
+        <v>62.50065676233442</v>
       </c>
       <c r="W15" t="n">
-        <v>132.3064353678658</v>
+        <v>88.55631942394376</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640263</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095764</v>
+        <v>45.23602198095779</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256615</v>
+        <v>25.2816970025663</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311259</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725504</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154976</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138193</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362674</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517456</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110045</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.3905020356633</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156617</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216663</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
         <v>40.44879289878247</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>31.30917887851517</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>188.4979333192471</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>188.4979333192471</v>
-      </c>
-      <c r="X18" t="n">
-        <v>88.34006352292417</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2087,7 +2087,7 @@
         <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465103</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
         <v>105.7515787130291</v>
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>31.3091788785151</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.4979333192471</v>
+        <v>32.28896067339636</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U24" t="n">
-        <v>77.65403455728143</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>159.1595237934313</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147514</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.0322440344472</v>
+        <v>14.03224403444727</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818268</v>
+        <v>8.981130875818337</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V26" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>11.73039443350194</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489292</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288762</v>
+        <v>23.74331897288768</v>
       </c>
       <c r="V27" t="n">
-        <v>97.62851602461458</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469617</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024628</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217964</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X28" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147513</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444726</v>
+        <v>14.03224403444718</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818325</v>
+        <v>8.98113087581824</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>140.4673607652015</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>41.59519468567647</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489349</v>
+        <v>1.486173081489264</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288768</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140131</v>
+        <v>27.16417039140123</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301066</v>
+        <v>53.21983305301057</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469673</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024685</v>
+        <v>9.8995356100246</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217964</v>
+        <v>21.95329384217955</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456468</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241597</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167487</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>159.774779986968</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903134</v>
+        <v>135.8930369903135</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513619</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
         <v>157.1664516707708</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491481</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717831</v>
+        <v>204.5257125717832</v>
       </c>
       <c r="H32" t="n">
         <v>132.7089382176852</v>
       </c>
       <c r="I32" t="n">
-        <v>26.6973088246107</v>
+        <v>26.69730882461076</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758284</v>
+        <v>13.20453416758289</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008953899</v>
+        <v>8.153421008953956</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178438</v>
+        <v>35.83808110178444</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182866</v>
+        <v>106.5673232182867</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349015</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
         <v>145.4702539038408</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275845</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>87.76443762858612</v>
       </c>
       <c r="C33" t="n">
-        <v>145.4336199663881</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146249103</v>
+        <v>0.6584632146249672</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602324</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453688</v>
+        <v>26.33646052453693</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614622</v>
+        <v>52.39212318614628</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605235</v>
+        <v>3.000454048605292</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160247</v>
+        <v>9.071825743160304</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.1255839753152</v>
+        <v>21.12558397531526</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945764</v>
+        <v>9.449098059457697</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770024</v>
+        <v>74.3440965777003</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358453</v>
+        <v>30.79655479358459</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669846996</v>
+        <v>75.99824669847001</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377159</v>
+        <v>7.606995017377216</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303049</v>
+        <v>2.828812423303106</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215645</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14632912491004</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D35" t="n">
-        <v>65.7129913859585</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536737</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837447</v>
+        <v>131.1400813837448</v>
       </c>
       <c r="G35" t="n">
         <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228178</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288324</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949811</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843735</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621811</v>
+        <v>110.2263991621812</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>36.42426965545926</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,31 +3387,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>26.68177206070925</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229683</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25153883306655</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>131.1400813837447</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063798</v>
+        <v>146.7790047063797</v>
       </c>
       <c r="H38" t="n">
         <v>74.96223035228178</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,25 +3624,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>62.23496703358263</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>26.68177206070925</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C41" t="n">
-        <v>109.1957281657028</v>
+        <v>109.1957281657027</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675121</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173735</v>
+        <v>9.140772277173678</v>
       </c>
       <c r="V41" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367594</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029082</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>76.36558332328538</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>173.571823391179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308953</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973833</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385925</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>109.1957281657027</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675121</v>
+        <v>96.7623904267512</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
@@ -3989,7 +3989,7 @@
         <v>162.1894804245374</v>
       </c>
       <c r="G44" t="n">
-        <v>177.8284037471734</v>
+        <v>177.8284037471725</v>
       </c>
       <c r="H44" t="n">
         <v>106.0116293930745</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153552</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>68.94873435422569</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.4190290235119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="E8" t="n">
         <v>6.719070557086891</v>
@@ -4832,22 +4832,22 @@
         <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="C9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="D9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="E9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="F9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="G9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
@@ -4887,13 +4887,13 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="O9" t="n">
         <v>9.757711402041103</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="S9" t="n">
         <v>9.565433267111001</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>6.333867974168094</v>
       </c>
-      <c r="S9" t="n">
-        <v>3.487505264143985</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.487505264143985</v>
-      </c>
       <c r="U9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>442.4562338347689</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C11" t="n">
-        <v>442.4562338347689</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D11" t="n">
-        <v>281.2199757649109</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E11" t="n">
-        <v>90.81802291718657</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F11" t="n">
-        <v>90.81802291718657</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554795</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554795</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021289</v>
+        <v>98.17571186577297</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4902538590853</v>
+        <v>267.8825731524722</v>
       </c>
       <c r="L11" t="n">
-        <v>162.2110963398454</v>
+        <v>314.6034156332323</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0729954267926</v>
+        <v>395.4653147201794</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4008885624849</v>
+        <v>470.7932078558717</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485396</v>
+        <v>505.0138425485394</v>
       </c>
       <c r="P11" t="n">
-        <v>666.439571432499</v>
+        <v>666.4395714324987</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S11" t="n">
-        <v>704.1243288271094</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="T11" t="n">
-        <v>659.359058880896</v>
+        <v>659.3590588808956</v>
       </c>
       <c r="U11" t="n">
-        <v>586.6294858106114</v>
+        <v>659.3590588808956</v>
       </c>
       <c r="V11" t="n">
-        <v>442.4562338347689</v>
+        <v>515.1858069050531</v>
       </c>
       <c r="W11" t="n">
-        <v>442.4562338347689</v>
+        <v>353.8239890538421</v>
       </c>
       <c r="X11" t="n">
-        <v>442.4562338347689</v>
+        <v>205.4817875132641</v>
       </c>
       <c r="Y11" t="n">
-        <v>442.4562338347689</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>198.1075712424061</v>
+        <v>24.54436736382052</v>
       </c>
       <c r="C12" t="n">
-        <v>188.6430385441253</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>188.6430385441253</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
         <v>15.07983466553977</v>
@@ -5121,49 +5121,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142011</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M12" t="n">
         <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900214</v>
+        <v>563.589780429264</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2799731825241</v>
+        <v>526.3951749217667</v>
       </c>
       <c r="U12" t="n">
-        <v>636.6034021281598</v>
+        <v>335.9932220740424</v>
       </c>
       <c r="V12" t="n">
-        <v>573.4714256005494</v>
+        <v>199.2483993752386</v>
       </c>
       <c r="W12" t="n">
-        <v>383.069472752825</v>
+        <v>109.7975716742855</v>
       </c>
       <c r="X12" t="n">
-        <v>343.5092199382769</v>
+        <v>70.23731885973734</v>
       </c>
       <c r="Y12" t="n">
-        <v>198.1075712424061</v>
+        <v>24.54436736382052</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.60586471875865</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553977</v>
+        <v>27.18003706804331</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553977</v>
+        <v>27.18003706804331</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553977</v>
+        <v>63.28743877947786</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553977</v>
+        <v>102.116606894753</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553977</v>
+        <v>111.4696212284093</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553977</v>
+        <v>123.6702490618267</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07983466553977</v>
+        <v>136.8325921860786</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07983466553977</v>
+        <v>194.162162190536</v>
       </c>
       <c r="K13" t="n">
-        <v>15.07983466553977</v>
+        <v>304.1692633642751</v>
       </c>
       <c r="L13" t="n">
-        <v>15.07983466553977</v>
+        <v>318.892610968549</v>
       </c>
       <c r="M13" t="n">
-        <v>52.54721506520389</v>
+        <v>470.2946957351817</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5590407811526</v>
+        <v>470.2946957351817</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348909</v>
+        <v>470.2946957351817</v>
       </c>
       <c r="P13" t="n">
         <v>470.2946957351817</v>
@@ -5239,7 +5239,7 @@
         <v>98.68003660117108</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099477</v>
+        <v>54.46671210099476</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>350.1112778142975</v>
+        <v>130.5903746042065</v>
       </c>
       <c r="C14" t="n">
-        <v>176.3160927353977</v>
+        <v>130.5903746042065</v>
       </c>
       <c r="D14" t="n">
-        <v>15.07983466553977</v>
+        <v>130.5903746042065</v>
       </c>
       <c r="E14" t="n">
-        <v>15.07983466553977</v>
+        <v>130.5903746042065</v>
       </c>
       <c r="F14" t="n">
-        <v>15.07983466553977</v>
+        <v>130.5903746042065</v>
       </c>
       <c r="G14" t="n">
         <v>15.07983466553977</v>
@@ -5276,52 +5276,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888282</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L14" t="n">
-        <v>331.8605171695883</v>
+        <v>331.8605171695879</v>
       </c>
       <c r="M14" t="n">
-        <v>412.7224162565354</v>
+        <v>412.7224162565351</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0503093922277</v>
+        <v>488.0503093922274</v>
       </c>
       <c r="O14" t="n">
-        <v>522.2709440848954</v>
+        <v>522.2709440848951</v>
       </c>
       <c r="P14" t="n">
-        <v>683.6966729688547</v>
+        <v>683.6966729688543</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049696</v>
+        <v>737.089429004969</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550905</v>
+        <v>737.089429004969</v>
       </c>
       <c r="T14" t="n">
-        <v>642.4567546088771</v>
+        <v>692.3241590587554</v>
       </c>
       <c r="U14" t="n">
-        <v>569.7271815385925</v>
+        <v>619.5945859884706</v>
       </c>
       <c r="V14" t="n">
-        <v>569.7271815385925</v>
+        <v>475.421334012628</v>
       </c>
       <c r="W14" t="n">
-        <v>408.3653636873814</v>
+        <v>314.0595161614169</v>
       </c>
       <c r="X14" t="n">
-        <v>350.1112778142975</v>
+        <v>130.5903746042065</v>
       </c>
       <c r="Y14" t="n">
-        <v>350.1112778142975</v>
+        <v>130.5903746042065</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54436736382053</v>
+        <v>24.54436736382067</v>
       </c>
       <c r="C15" t="n">
         <v>15.07983466553977</v>
@@ -5352,55 +5352,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553986</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07983466553986</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0528889596541</v>
+        <v>617.9111264193341</v>
       </c>
       <c r="S15" t="n">
-        <v>556.6509361119297</v>
+        <v>489.9769342580715</v>
       </c>
       <c r="T15" t="n">
-        <v>366.2489832642053</v>
+        <v>452.782328750574</v>
       </c>
       <c r="U15" t="n">
-        <v>306.572412209841</v>
+        <v>262.3803759028497</v>
       </c>
       <c r="V15" t="n">
-        <v>243.4404356822307</v>
+        <v>199.2483993752392</v>
       </c>
       <c r="W15" t="n">
-        <v>109.7975716742855</v>
+        <v>109.7975716742859</v>
       </c>
       <c r="X15" t="n">
-        <v>70.23731885973734</v>
+        <v>70.23731885973763</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.54436736382053</v>
+        <v>24.54436736382067</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.6058647187585</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07983466553977</v>
+        <v>27.18003706804303</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553977</v>
+        <v>50.10854875290319</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553977</v>
+        <v>86.2159504643376</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07983466553977</v>
+        <v>86.2159504643376</v>
       </c>
       <c r="G16" t="n">
-        <v>24.43284899919612</v>
+        <v>86.2159504643376</v>
       </c>
       <c r="H16" t="n">
-        <v>24.43284899919612</v>
+        <v>98.41657829775482</v>
       </c>
       <c r="I16" t="n">
-        <v>24.43284899919612</v>
+        <v>111.5789214220066</v>
       </c>
       <c r="J16" t="n">
-        <v>24.43284899919612</v>
+        <v>111.5789214220066</v>
       </c>
       <c r="K16" t="n">
-        <v>24.43284899919612</v>
+        <v>111.5789214220066</v>
       </c>
       <c r="L16" t="n">
-        <v>168.9693324250363</v>
+        <v>111.5789214220066</v>
       </c>
       <c r="M16" t="n">
-        <v>320.371417191669</v>
+        <v>262.9810061886392</v>
       </c>
       <c r="N16" t="n">
-        <v>320.371417191669</v>
+        <v>262.9810061886392</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8217271348909</v>
+        <v>402.2436925423773</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351817</v>
+        <v>520.716661142668</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426667</v>
+        <v>520.716661142668</v>
       </c>
       <c r="R16" t="n">
-        <v>495.179593463307</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015771</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578851</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604128</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064916</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117108</v>
+        <v>98.68003660117137</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099477</v>
+        <v>54.4667121009949</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961951</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040795</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210057</v>
+        <v>369.3697837210048</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718625</v>
+        <v>294.5907522718616</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940544</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
@@ -5513,52 +5513,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>38.41954622895928</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K17" t="n">
-        <v>38.41954622895928</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L17" t="n">
-        <v>85.14038870971933</v>
+        <v>61.80067714629979</v>
       </c>
       <c r="M17" t="n">
-        <v>166.0022877966665</v>
+        <v>248.4136311323544</v>
       </c>
       <c r="N17" t="n">
-        <v>241.3301809323588</v>
+        <v>323.7415242680466</v>
       </c>
       <c r="O17" t="n">
-        <v>275.5508156250265</v>
+        <v>451.3232515460914</v>
       </c>
       <c r="P17" t="n">
-        <v>275.5508156250265</v>
+        <v>451.3232515460914</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110812</v>
+        <v>637.936205532146</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002526</v>
+        <v>637.936205532146</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051035</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="T17" t="n">
-        <v>707.167575136997</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879308</v>
+        <v>730.32293258793</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235044</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530784</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122041</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>283.9554401846465</v>
+        <v>46.70526787616114</v>
       </c>
       <c r="C18" t="n">
-        <v>283.9554401846465</v>
+        <v>46.70526787616114</v>
       </c>
       <c r="D18" t="n">
-        <v>283.9554401846465</v>
+        <v>46.70526787616114</v>
       </c>
       <c r="E18" t="n">
-        <v>283.9554401846465</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I18" t="n">
         <v>15.07983466553977</v>
@@ -5595,49 +5595,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142012</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M18" t="n">
         <v>352.0527264137995</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769884</v>
+        <v>617.9111264193341</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9917332769884</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9917332769884</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="U18" t="n">
-        <v>753.9917332769884</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="V18" t="n">
-        <v>563.589780429264</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="W18" t="n">
-        <v>373.1878275815396</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="X18" t="n">
-        <v>283.9554401846465</v>
+        <v>237.1072207238855</v>
       </c>
       <c r="Y18" t="n">
-        <v>283.9554401846465</v>
+        <v>46.70526787616114</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961944</v>
+        <v>463.3923242961943</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040786</v>
+        <v>410.1015905040787</v>
       </c>
       <c r="D20" t="n">
         <v>369.3697837210049</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718625</v>
+        <v>294.5907522718616</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940544</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
@@ -5750,49 +5750,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07983466553977</v>
+        <v>115.2537484516823</v>
       </c>
       <c r="K20" t="n">
-        <v>15.07983466553977</v>
+        <v>115.2537484516823</v>
       </c>
       <c r="L20" t="n">
-        <v>61.80067714629983</v>
+        <v>161.9745909324423</v>
       </c>
       <c r="M20" t="n">
-        <v>142.662576233247</v>
+        <v>348.587544918497</v>
       </c>
       <c r="N20" t="n">
-        <v>217.9904693689393</v>
+        <v>423.9154380541893</v>
       </c>
       <c r="O20" t="n">
-        <v>252.211104061607</v>
+        <v>610.5283920402439</v>
       </c>
       <c r="P20" t="n">
-        <v>275.5508156250266</v>
+        <v>610.5283920402439</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110813</v>
+        <v>610.5283920402439</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002527</v>
+        <v>610.5283920402439</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051036</v>
+        <v>679.7597616450948</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369971</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879302</v>
+        <v>730.32293258793</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235036</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530776</v>
       </c>
       <c r="Y20" t="n">
         <v>540.8060308122033</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46.70526787616109</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="C21" t="n">
         <v>15.07983466553977</v>
@@ -5832,13 +5832,13 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142011</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N21" t="n">
         <v>538.6656803998542</v>
@@ -5856,25 +5856,25 @@
         <v>617.9111264193342</v>
       </c>
       <c r="S21" t="n">
-        <v>617.9111264193342</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="T21" t="n">
-        <v>617.9111264193342</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="U21" t="n">
-        <v>617.9111264193342</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="V21" t="n">
         <v>427.5091735716098</v>
       </c>
       <c r="W21" t="n">
-        <v>237.1072207238855</v>
+        <v>394.8940617803004</v>
       </c>
       <c r="X21" t="n">
-        <v>237.1072207238855</v>
+        <v>394.8940617803004</v>
       </c>
       <c r="Y21" t="n">
-        <v>46.70526787616109</v>
+        <v>204.4921089325761</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961939</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040784</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210048</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718617</v>
+        <v>294.5907522718623</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993304</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J23" t="n">
-        <v>112.651517860853</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="K23" t="n">
-        <v>112.651517860853</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="L23" t="n">
-        <v>159.372360341613</v>
+        <v>248.4136311323546</v>
       </c>
       <c r="M23" t="n">
-        <v>240.2342594285602</v>
+        <v>435.0265851184093</v>
       </c>
       <c r="N23" t="n">
-        <v>315.5621525642525</v>
+        <v>510.3544782541017</v>
       </c>
       <c r="O23" t="n">
-        <v>349.7827872569202</v>
+        <v>696.9674322401564</v>
       </c>
       <c r="P23" t="n">
-        <v>349.7827872569202</v>
+        <v>696.9674322401564</v>
       </c>
       <c r="Q23" t="n">
-        <v>536.3957412429749</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R23" t="n">
-        <v>637.9362055321462</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S23" t="n">
-        <v>707.1675751369971</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369971</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235038</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122031</v>
+        <v>540.8060308122036</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>349.0707548268812</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C24" t="n">
-        <v>349.0707548268812</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D24" t="n">
-        <v>349.0707548268812</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>175.5075509482957</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142011</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M24" t="n">
         <v>352.0527264137995</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769885</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R24" t="n">
-        <v>617.9111264193343</v>
+        <v>747.052888959654</v>
       </c>
       <c r="S24" t="n">
-        <v>427.5091735716099</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="T24" t="n">
-        <v>427.5091735716099</v>
+        <v>366.248983264205</v>
       </c>
       <c r="U24" t="n">
-        <v>349.0707548268812</v>
+        <v>366.248983264205</v>
       </c>
       <c r="V24" t="n">
-        <v>349.0707548268812</v>
+        <v>175.8470304164805</v>
       </c>
       <c r="W24" t="n">
-        <v>349.0707548268812</v>
+        <v>175.8470304164805</v>
       </c>
       <c r="X24" t="n">
-        <v>349.0707548268812</v>
+        <v>175.8470304164805</v>
       </c>
       <c r="Y24" t="n">
-        <v>349.0707548268812</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874109</v>
+        <v>882.7966579874101</v>
       </c>
       <c r="D26" t="n">
-        <v>757.253820494253</v>
+        <v>757.2538204942521</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350255</v>
+        <v>597.6637583350246</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471341</v>
+        <v>406.0329511471331</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141569</v>
+        <v>198.6052517141557</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845029</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589552</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528781</v>
+        <v>375.9427824528784</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523993</v>
+        <v>634.0135279523995</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581075</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
@@ -6245,7 +6245,7 @@
         <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
         <v>1795.834970757103</v>
@@ -6257,19 +6257,19 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715703</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>385.7566899649343</v>
+        <v>47.76558268130564</v>
       </c>
       <c r="C27" t="n">
-        <v>196.344415697898</v>
+        <v>47.76558268130564</v>
       </c>
       <c r="D27" t="n">
-        <v>196.344415697898</v>
+        <v>47.76558268130564</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>47.76558268130564</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514207</v>
+        <v>47.76558268130564</v>
       </c>
       <c r="G27" t="n">
         <v>35.91669941514207</v>
@@ -6309,46 +6309,46 @@
         <v>73.8800254310224</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634017</v>
       </c>
       <c r="N27" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512952</v>
+        <v>599.5945686129069</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204979</v>
+        <v>382.4522215366541</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428336</v>
+        <v>358.4690710589898</v>
       </c>
       <c r="V27" t="n">
-        <v>669.0216223917078</v>
+        <v>331.0305151080793</v>
       </c>
       <c r="W27" t="n">
-        <v>399.6230531219991</v>
+        <v>61.63194583837065</v>
       </c>
       <c r="X27" t="n">
-        <v>395.756220884151</v>
+        <v>57.7651136005225</v>
       </c>
       <c r="Y27" t="n">
-        <v>385.7566899649343</v>
+        <v>47.76558268130564</v>
       </c>
     </row>
     <row r="28">
@@ -6379,52 +6379,52 @@
         <v>35.91669941514207</v>
       </c>
       <c r="I28" t="n">
-        <v>84.06216404661765</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J28" t="n">
-        <v>176.3748555582987</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K28" t="n">
-        <v>176.3748555582987</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L28" t="n">
-        <v>176.3748555582987</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M28" t="n">
-        <v>176.3748555582987</v>
+        <v>222.3019056889984</v>
       </c>
       <c r="N28" t="n">
-        <v>176.3748555582987</v>
+        <v>222.3019056889984</v>
       </c>
       <c r="O28" t="n">
-        <v>176.3748555582987</v>
+        <v>222.3019056889984</v>
       </c>
       <c r="P28" t="n">
-        <v>176.3748555582987</v>
+        <v>222.3019056889984</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.7799424730074</v>
+        <v>256.2082727013264</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909793</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U28" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389705</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514207</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874103</v>
+        <v>882.796657987411</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942524</v>
+        <v>757.2538204942531</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350249</v>
+        <v>597.6637583350257</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471335</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141561</v>
+        <v>198.605251714157</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845029</v>
+        <v>63.7197485984502</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514206</v>
@@ -6464,13 +6464,13 @@
         <v>171.2527996589548</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528781</v>
+        <v>375.9427824528778</v>
       </c>
       <c r="L29" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M29" t="n">
-        <v>926.225330058107</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N29" t="n">
         <v>1212.90312621256</v>
@@ -6497,16 +6497,16 @@
         <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715703</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>530.6877358154518</v>
+        <v>77.93204758249203</v>
       </c>
       <c r="C30" t="n">
-        <v>530.6877358154518</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D30" t="n">
-        <v>369.9076195764835</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E30" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F30" t="n">
         <v>35.91669941514206</v>
@@ -6543,49 +6543,49 @@
         <v>35.91669941514206</v>
       </c>
       <c r="K30" t="n">
-        <v>73.8800254310224</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634017</v>
       </c>
       <c r="N30" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512952</v>
+        <v>592.6557242955724</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204979</v>
+        <v>591.1545393647752</v>
       </c>
       <c r="U30" t="n">
-        <v>767.6362850428335</v>
+        <v>567.171388887111</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1977290919231</v>
+        <v>539.7328329362007</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4403219676699</v>
+        <v>485.9754258119476</v>
       </c>
       <c r="X30" t="n">
-        <v>682.5734897298217</v>
+        <v>266.4674314286439</v>
       </c>
       <c r="Y30" t="n">
-        <v>672.5739588106048</v>
+        <v>256.4679005094271</v>
       </c>
     </row>
     <row r="31">
@@ -6628,40 +6628,40 @@
         <v>35.91669941514206</v>
       </c>
       <c r="M31" t="n">
-        <v>222.3019056889984</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760096</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760096</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760096</v>
+        <v>180.7574272613003</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909796</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239876</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032152</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737346</v>
+        <v>48.13006019737328</v>
       </c>
       <c r="X31" t="n">
-        <v>39.6101562738971</v>
+        <v>39.610156273897</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514206</v>
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510279</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806696</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601019</v>
+        <v>752.8175276601007</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734648</v>
+        <v>594.0635360734634</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581636</v>
+        <v>403.2687994581624</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977762</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465886</v>
+        <v>62.62773805465892</v>
       </c>
       <c r="I32" t="n">
         <v>35.66075944394098</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559495</v>
+        <v>171.1369448117489</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180682</v>
+        <v>376.6463603738675</v>
       </c>
       <c r="L32" t="n">
-        <v>636.215886285785</v>
+        <v>635.5365386415842</v>
       </c>
       <c r="M32" t="n">
-        <v>929.247121159689</v>
+        <v>928.5677735154882</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1216.065002438137</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1462.454972917761</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218727</v>
+        <v>1659.68325607714</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1783.037972197049</v>
       </c>
       <c r="R32" t="n">
         <v>1783.037972197049</v>
@@ -6734,16 +6734,16 @@
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.3344422749458</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="C33" t="n">
-        <v>530.4317958442507</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="D33" t="n">
-        <v>369.6516796052824</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="F33" t="n">
         <v>35.66075944394098</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800941</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800941</v>
+        <v>785.9258361627597</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800941</v>
+        <v>649.8452293051055</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800941</v>
+        <v>456.3191774667173</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218871</v>
+        <v>455.6540631085102</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168131</v>
+        <v>216.0297504853904</v>
       </c>
       <c r="V33" t="n">
-        <v>742.450000838493</v>
+        <v>189.4272651070703</v>
       </c>
       <c r="W33" t="n">
-        <v>689.5286642868301</v>
+        <v>136.5059285554074</v>
       </c>
       <c r="X33" t="n">
-        <v>686.4979026215723</v>
+        <v>133.4751668901495</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3344422749458</v>
+        <v>124.3117065435229</v>
       </c>
     </row>
     <row r="34">
@@ -6838,67 +6838,67 @@
         <v>35.66075944394098</v>
       </c>
       <c r="D34" t="n">
-        <v>35.66075944394098</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="E34" t="n">
-        <v>35.66075944394098</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="F34" t="n">
-        <v>35.66075944394098</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="G34" t="n">
-        <v>35.66075944394098</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="H34" t="n">
-        <v>35.66075944394098</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="I34" t="n">
-        <v>84.6256568436123</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="J34" t="n">
-        <v>177.7577811234891</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966761</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966761</v>
+        <v>72.8494411546244</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966761</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966761</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966761</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966761</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966761</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966761</v>
+        <v>260.0540801966765</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842365</v>
+        <v>238.7151064842369</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898349</v>
+        <v>229.1705629898352</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416528</v>
+        <v>154.075515941653</v>
       </c>
       <c r="V34" t="n">
-        <v>122.967884837022</v>
+        <v>122.9678848370221</v>
       </c>
       <c r="W34" t="n">
-        <v>46.2019790809917</v>
+        <v>46.20197908099181</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010568</v>
+        <v>38.51814573010574</v>
       </c>
       <c r="Y34" t="n">
         <v>35.66075944394098</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.01906753611</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.0833815513524</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756369</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338509</v>
+        <v>377.2826389338516</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634023</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786671</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
         <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83686474960229</v>
+        <v>51.57576979998701</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1616385483602</v>
+        <v>51.57576979998701</v>
       </c>
       <c r="K35" t="n">
-        <v>214.1616385483602</v>
+        <v>51.57576979998701</v>
       </c>
       <c r="L35" t="n">
-        <v>260.8824810291203</v>
+        <v>120.0967502382591</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7443801160675</v>
+        <v>377.9529515145875</v>
       </c>
       <c r="N35" t="n">
-        <v>417.0722732517597</v>
+        <v>635.8091527909158</v>
       </c>
       <c r="O35" t="n">
-        <v>451.2929079444274</v>
+        <v>670.0297874835835</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835828</v>
+        <v>670.0297874835835</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902411</v>
+        <v>850.5537443902417</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354041</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962465</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984135</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413446</v>
+        <v>926.0271658413454</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782767</v>
+        <v>837.4175233782773</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447602</v>
+        <v>726.077726244761</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>552.400092721083</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C36" t="n">
-        <v>515.607901149912</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8277849109437</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2645810323582</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F36" t="n">
         <v>20.83686474960229</v>
@@ -7017,7 +7017,7 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548261</v>
+        <v>58.80019076548262</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938567</v>
@@ -7035,31 +7035,31 @@
         <v>778.0407857857554</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857554</v>
+        <v>744.1506565586136</v>
       </c>
       <c r="T36" t="n">
-        <v>778.0407857857554</v>
+        <v>527.0083094823608</v>
       </c>
       <c r="U36" t="n">
-        <v>778.0407857857554</v>
+        <v>527.0083094823608</v>
       </c>
       <c r="V36" t="n">
-        <v>778.0407857857554</v>
+        <v>283.9285913859949</v>
       </c>
       <c r="W36" t="n">
-        <v>778.0407857857554</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X36" t="n">
-        <v>778.0407857857554</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y36" t="n">
-        <v>552.400092721083</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="37">
@@ -7096,40 +7096,40 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078062</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078062</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
         <v>20.83686474960229</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361096</v>
+        <v>623.0190675361097</v>
       </c>
       <c r="C38" t="n">
         <v>544.083381551352</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756366</v>
       </c>
       <c r="E38" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338514</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634018</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G38" t="n">
         <v>96.55628934786671</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998706</v>
+        <v>36.70132047657299</v>
       </c>
       <c r="J38" t="n">
-        <v>244.900543598745</v>
+        <v>230.0260942753309</v>
       </c>
       <c r="K38" t="n">
-        <v>481.9958720754004</v>
+        <v>487.8822955516593</v>
       </c>
       <c r="L38" t="n">
-        <v>528.7167145561605</v>
+        <v>534.6031380324193</v>
       </c>
       <c r="M38" t="n">
-        <v>609.5786136431077</v>
+        <v>615.4650371193665</v>
       </c>
       <c r="N38" t="n">
-        <v>684.9065067788</v>
+        <v>690.7929302550588</v>
       </c>
       <c r="O38" t="n">
-        <v>719.1271414714677</v>
+        <v>948.6491315313871</v>
       </c>
       <c r="P38" t="n">
-        <v>719.1271414714677</v>
+        <v>948.6491315313871</v>
       </c>
       <c r="Q38" t="n">
-        <v>899.651098378126</v>
+        <v>948.6491315313871</v>
       </c>
       <c r="R38" t="n">
-        <v>976.0569450232889</v>
+        <v>948.6491315313871</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.153696984131</v>
+        <v>992.7458834922295</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984131</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W38" t="n">
-        <v>926.027165841345</v>
+        <v>926.0271658413454</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782769</v>
+        <v>837.4175233782771</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447606</v>
+        <v>726.0777262447607</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>498.0348356452777</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C39" t="n">
-        <v>308.6225613782414</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D39" t="n">
-        <v>147.8424451392731</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E39" t="n">
-        <v>147.8424451392731</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>147.8424451392731</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>147.8424451392731</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548261</v>
+        <v>58.80019076548262</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938567</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857554</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="S39" t="n">
-        <v>715.1771827215305</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="T39" t="n">
-        <v>498.0348356452777</v>
+        <v>553.9595943921681</v>
       </c>
       <c r="U39" t="n">
-        <v>498.0348356452777</v>
+        <v>527.0083094823608</v>
       </c>
       <c r="V39" t="n">
-        <v>498.0348356452777</v>
+        <v>283.9285913859949</v>
       </c>
       <c r="W39" t="n">
-        <v>498.0348356452777</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X39" t="n">
-        <v>498.0348356452777</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y39" t="n">
-        <v>498.0348356452777</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="R40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="S40" t="n">
         <v>56.03780166411075</v>
@@ -7363,19 +7363,19 @@
         <v>56.03780166411075</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078062</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078062</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.426354275317</v>
+        <v>818.4263542753166</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564251</v>
+        <v>708.1276389564249</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465752</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706561</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660731</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1484294164039</v>
+        <v>135.1484294164038</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323785</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308617</v>
+        <v>260.0057267824886</v>
       </c>
       <c r="L41" t="n">
-        <v>469.3124380116217</v>
+        <v>306.7265692632487</v>
       </c>
       <c r="M41" t="n">
-        <v>550.1743370985689</v>
+        <v>387.5884683501959</v>
       </c>
       <c r="N41" t="n">
-        <v>679.6515597895273</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055162</v>
+        <v>952.4718660055153</v>
       </c>
       <c r="P41" t="n">
         <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757533</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262769</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181019</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K42" t="n">
-        <v>66.0293014998857</v>
+        <v>66.02930149988569</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M42" t="n">
         <v>365.0388672322651</v>
@@ -7509,31 +7509,31 @@
         <v>785.2698965201585</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.331052202824</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="R42" t="n">
-        <v>778.331052202824</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="S42" t="n">
-        <v>778.331052202824</v>
+        <v>591.7438446817703</v>
       </c>
       <c r="T42" t="n">
-        <v>778.331052202824</v>
+        <v>374.6014976055175</v>
       </c>
       <c r="U42" t="n">
-        <v>778.331052202824</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="V42" t="n">
-        <v>778.331052202824</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="W42" t="n">
-        <v>508.9324829331154</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X42" t="n">
-        <v>508.9324829331154</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y42" t="n">
-        <v>333.6074088006113</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400538</v>
+        <v>53.03171161445198</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400538</v>
+        <v>53.03171161445198</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400538</v>
+        <v>53.03171161445198</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400538</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400538</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="I43" t="n">
-        <v>103.4612086200412</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323071</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931774</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753181</v>
+        <v>818.4263542753167</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564264</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465765</v>
+        <v>610.3878506465757</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706568</v>
+        <v>478.6008376706563</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660735</v>
+        <v>314.773079666073</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1484294164039</v>
+        <v>135.1484294164038</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400538</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>28.06597548400538</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="L44" t="n">
-        <v>74.78681796476545</v>
+        <v>475.97235823646</v>
       </c>
       <c r="M44" t="n">
-        <v>384.0824440680134</v>
+        <v>556.8342573234072</v>
       </c>
       <c r="N44" t="n">
-        <v>698.0100087270271</v>
+        <v>870.7618219824208</v>
       </c>
       <c r="O44" t="n">
-        <v>970.8303149430161</v>
+        <v>998.138807600293</v>
       </c>
       <c r="P44" t="n">
-        <v>1194.48893383876</v>
+        <v>1221.797426496036</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.273985695033</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="R44" t="n">
-        <v>1389.940927289811</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.298774200269</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889993</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582956</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785754</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181032</v>
+        <v>952.8480423181019</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>551.8215698685955</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C45" t="n">
-        <v>362.4092956015592</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D45" t="n">
-        <v>201.6291793625909</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988572</v>
+        <v>66.0293014998857</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282598</v>
@@ -7758,19 +7758,19 @@
         <v>785.2698965201586</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201586</v>
+        <v>545.6455838970387</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2698965201586</v>
+        <v>545.6455838970387</v>
       </c>
       <c r="W45" t="n">
-        <v>759.3155385792136</v>
+        <v>276.24701462733</v>
       </c>
       <c r="X45" t="n">
-        <v>759.3155385792136</v>
+        <v>206.6018284109404</v>
       </c>
       <c r="Y45" t="n">
-        <v>551.8215698685955</v>
+        <v>206.6018284109404</v>
       </c>
     </row>
     <row r="46">
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="S46" t="n">
         <v>130.1336235606949</v>
@@ -7837,19 +7837,19 @@
         <v>130.1336235606949</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323072</v>
+        <v>82.00555512323071</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931775</v>
+        <v>77.86490262931774</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
   </sheetData>
@@ -8535,7 +8535,7 @@
         <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
@@ -8544,7 +8544,7 @@
         <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
         <v>166.5187640737787</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -23261,22 +23261,22 @@
         <v>172.0572332281108</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891593</v>
       </c>
       <c r="E11" t="n">
-        <v>4.832714589321057</v>
+        <v>193.3306479085682</v>
       </c>
       <c r="F11" t="n">
         <v>225.0509854869455</v>
       </c>
       <c r="G11" t="n">
-        <v>228.5706075028583</v>
+        <v>240.6899088095806</v>
       </c>
       <c r="H11" t="n">
         <v>168.8731344554826</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.8615050624081</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929889</v>
+        <v>16.733281229299</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958178</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726989</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416382</v>
+        <v>34.77567061646587</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653819</v>
+        <v>15.63936994613485</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247654</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085682</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869455</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6899088095806</v>
+        <v>126.3344742703007</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554826</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240809</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.731519456084</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>123.9629051272851</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653819</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737569.5399363718</v>
+        <v>737569.5399363716</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852253.9260375681</v>
+        <v>852253.9260375684</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>727593.8960205793</v>
+        <v>727593.8960205789</v>
       </c>
       <c r="C2" t="n">
         <v>727593.8960205794</v>
       </c>
       <c r="D2" t="n">
-        <v>728014.0854682988</v>
+        <v>728014.0854682986</v>
       </c>
       <c r="E2" t="n">
-        <v>626781.7287180355</v>
+        <v>626781.728718035</v>
       </c>
       <c r="F2" t="n">
-        <v>626781.7287180354</v>
+        <v>626781.7287180352</v>
       </c>
       <c r="G2" t="n">
-        <v>729067.8028082922</v>
+        <v>729067.8028082919</v>
       </c>
       <c r="H2" t="n">
+        <v>729067.8028082921</v>
+      </c>
+      <c r="I2" t="n">
         <v>729067.802808292</v>
       </c>
-      <c r="I2" t="n">
-        <v>729067.8028082922</v>
-      </c>
       <c r="J2" t="n">
-        <v>729067.8028082915</v>
+        <v>729067.8028082919</v>
       </c>
       <c r="K2" t="n">
         <v>729067.8028082915</v>
       </c>
       <c r="L2" t="n">
-        <v>729067.8028082926</v>
+        <v>729067.8028082919</v>
       </c>
       <c r="M2" t="n">
         <v>729067.8028082921</v>
       </c>
       <c r="N2" t="n">
+        <v>729067.8028082919</v>
+      </c>
+      <c r="O2" t="n">
+        <v>729067.8028082923</v>
+      </c>
+      <c r="P2" t="n">
         <v>729067.802808292</v>
-      </c>
-      <c r="O2" t="n">
-        <v>729067.8028082921</v>
-      </c>
-      <c r="P2" t="n">
-        <v>729067.8028082923</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913316</v>
+        <v>95439.52541913326</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>46197.36629232272</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.9148592439</v>
+        <v>72254.91485924383</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>302020.8786145414</v>
       </c>
       <c r="F4" t="n">
-        <v>302020.8786145414</v>
+        <v>302020.8786145413</v>
       </c>
       <c r="G4" t="n">
         <v>372628.7466577631</v>
@@ -26439,13 +26439,13 @@
         <v>372628.7466577631</v>
       </c>
       <c r="J4" t="n">
+        <v>373436.5296138824</v>
+      </c>
+      <c r="K4" t="n">
         <v>373436.5296138825</v>
       </c>
-      <c r="K4" t="n">
-        <v>373436.5296138824</v>
-      </c>
       <c r="L4" t="n">
-        <v>373421.7396465039</v>
+        <v>373421.739646504</v>
       </c>
       <c r="M4" t="n">
         <v>372611.8022731854</v>
@@ -26479,10 +26479,10 @@
         <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582417</v>
       </c>
       <c r="H5" t="n">
         <v>38672.33876582418</v>
@@ -26497,19 +26497,19 @@
         <v>47449.6772201635</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.74758284811</v>
+        <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
         <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.29559868729</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279597.6698537441</v>
+        <v>279593.2034695385</v>
       </c>
       <c r="C6" t="n">
-        <v>279597.6698537442</v>
+        <v>279593.2034695389</v>
       </c>
       <c r="D6" t="n">
-        <v>278965.5746959571</v>
+        <v>278962.3816131086</v>
       </c>
       <c r="E6" t="n">
-        <v>16991.77798703212</v>
+        <v>16681.82018675821</v>
       </c>
       <c r="F6" t="n">
-        <v>296117.8931657462</v>
+        <v>295807.9353654727</v>
       </c>
       <c r="G6" t="n">
-        <v>222327.1919655718</v>
+        <v>222327.1919655713</v>
       </c>
       <c r="H6" t="n">
-        <v>317766.7173847047</v>
+        <v>317766.7173847048</v>
       </c>
       <c r="I6" t="n">
-        <v>317766.7173847049</v>
+        <v>317766.7173847046</v>
       </c>
       <c r="J6" t="n">
-        <v>164685.312967366</v>
+        <v>164685.3129673665</v>
       </c>
       <c r="K6" t="n">
-        <v>308181.5959742456</v>
+        <v>308181.5959742455</v>
       </c>
       <c r="L6" t="n">
-        <v>212219.6222663158</v>
+        <v>212219.6222663151</v>
       </c>
       <c r="M6" t="n">
         <v>269345.3386440966</v>
       </c>
       <c r="N6" t="n">
-        <v>315542.7049364193</v>
+        <v>315542.7049364191</v>
       </c>
       <c r="O6" t="n">
-        <v>240016.8951832718</v>
+        <v>240016.8951832722</v>
       </c>
       <c r="P6" t="n">
-        <v>312271.810042516</v>
+        <v>312271.8100425157</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>178.148264153068</v>
       </c>
       <c r="F2" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
@@ -26707,22 +26707,22 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
+        <v>213.4847505240009</v>
+      </c>
+      <c r="K2" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="K2" t="n">
-        <v>213.4847505240009</v>
-      </c>
       <c r="L2" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="N2" t="n">
         <v>272.0591682562688</v>
       </c>
       <c r="O2" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="P2" t="n">
         <v>241.0097692154761</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="L3" t="n">
         <v>101.1713840758393</v>
@@ -26808,28 +26808,28 @@
         <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
         <v>448.9587426892758</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892757</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492622</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500672</v>
+        <v>350.824693550067</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500672</v>
+        <v>350.824693550067</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739164</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008454</v>
+        <v>94.18534375008448</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>57.74670786540341</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>63.13594470929178</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700287</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003867</v>
+        <v>90.36388418003833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739164</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008454</v>
+        <v>94.18534375008448</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.6088275148272</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>224.3762098531791</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
         <v>250.1830790232068</v>
@@ -27950,10 +27950,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>112.0379203647931</v>
       </c>
       <c r="J9" t="n">
-        <v>69.83566399273495</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,16 +27974,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.8149753650161</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>212.6488107764739</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -27995,7 +27995,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>217.3129144394706</v>
+        <v>214.1136647994571</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28111,11 +28111,11 @@
         <v>178.148264153068</v>
       </c>
       <c r="J11" t="n">
+        <v>160.7168484597792</v>
+      </c>
+      <c r="K11" t="n">
         <v>178.148264153068</v>
       </c>
-      <c r="K11" t="n">
-        <v>6.785212809893366</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>178.148264153068</v>
@@ -28175,7 +28175,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>178.148264153068</v>
+        <v>3.092858000757246</v>
       </c>
       <c r="T12" t="n">
         <v>178.148264153068</v>
       </c>
       <c r="U12" t="n">
+        <v>48.73013617764155</v>
+      </c>
+      <c r="V12" t="n">
+        <v>105.2715464435865</v>
+      </c>
+      <c r="W12" t="n">
         <v>178.148264153068</v>
-      </c>
-      <c r="V12" t="n">
-        <v>178.148264153068</v>
-      </c>
-      <c r="W12" t="n">
-        <v>78.20665025776447</v>
       </c>
       <c r="X12" t="n">
         <v>178.148264153068</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.43665392511346</v>
+        <v>178.148264153068</v>
       </c>
     </row>
     <row r="13">
@@ -28245,49 +28245,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.148264153068</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.148264153068</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.148264153068</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.148264153068</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.148264153068</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8243976546666</v>
+        <v>178.148264153068</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.148264153068</v>
       </c>
       <c r="J13" t="n">
-        <v>120.239607582909</v>
+        <v>178.148264153068</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013919</v>
+        <v>178.148264153068</v>
       </c>
       <c r="L13" t="n">
-        <v>32.1518162481789</v>
+        <v>47.02388453532421</v>
       </c>
       <c r="M13" t="n">
-        <v>63.06270418643299</v>
+        <v>178.148264153068</v>
       </c>
       <c r="N13" t="n">
-        <v>178.148264153068</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O13" t="n">
-        <v>178.148264153068</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P13" t="n">
-        <v>178.148264153068</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q13" t="n">
         <v>178.148264153068</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.7168484597794</v>
+        <v>160.7168484597796</v>
       </c>
       <c r="R14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.09285800075719</v>
+        <v>64.93594108035434</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624315</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U15" t="n">
-        <v>178.148264153068</v>
+        <v>48.73013617764154</v>
       </c>
       <c r="V15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>134.3981482091458</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="16">
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>168.3427630637008</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.148264153068</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J16" t="n">
         <v>120.239607582909</v>
@@ -28512,46 +28512,46 @@
         <v>67.02998013919</v>
       </c>
       <c r="L16" t="n">
-        <v>178.148264153068</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O16" t="n">
-        <v>69.24687383941504</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.148264153068</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="17">
@@ -28585,37 +28585,37 @@
         <v>241.0097692154761</v>
       </c>
       <c r="J17" t="n">
-        <v>100.3570851902704</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146301014</v>
+        <v>6.727192146301036</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>94.30413392462333</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108881</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q17" t="n">
         <v>278.2096703566691</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U17" t="n">
         <v>297.4476709269844</v>
@@ -28649,10 +28649,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>140.5183929612845</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446044746268</v>
@@ -28661,10 +28661,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161062</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757247</v>
       </c>
       <c r="T18" t="n">
         <v>214.9709236054903</v>
@@ -28700,16 +28700,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615515</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776449</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>128.9728509165464</v>
+        <v>28.81498112022354</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477855</v>
       </c>
     </row>
     <row r="19">
@@ -28749,19 +28749,19 @@
         <v>67.02998013919</v>
       </c>
       <c r="L19" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024889</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28822,31 +28822,31 @@
         <v>241.0097692154761</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459409</v>
+        <v>177.9673904657482</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146301014</v>
+        <v>6.727192146301036</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P20" t="n">
-        <v>38.66743857676521</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742203</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S20" t="n">
         <v>297.4476709269844</v>
@@ -28855,7 +28855,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>156.2089726458508</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161062</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757218</v>
       </c>
       <c r="T21" t="n">
         <v>214.9709236054903</v>
@@ -28937,16 +28937,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>52.15098759615512</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.20665025776447</v>
+        <v>234.4156229036152</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.88635281477849</v>
+        <v>34.88635281477852</v>
       </c>
     </row>
     <row r="22">
@@ -28986,19 +28986,19 @@
         <v>67.02998013919</v>
       </c>
       <c r="L22" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024889</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29056,43 +29056,43 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269844</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J23" t="n">
-        <v>118.9009730059273</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146301014</v>
+        <v>6.727192146301036</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8192473728359</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.9316356498859</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108881</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566692</v>
+        <v>147.3120411150305</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
         <v>222.4658813998193</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29123,10 +29123,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446044746268</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>3.09285800075719</v>
+        <v>3.092858000757104</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624306</v>
       </c>
       <c r="U24" t="n">
-        <v>159.5740349396072</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615503</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>64.22476234059428</v>
       </c>
     </row>
     <row r="25">
@@ -29223,19 +29223,19 @@
         <v>67.02998013919</v>
       </c>
       <c r="L25" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024889</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,10 +29363,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>137.0142100411249</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161062</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V27" t="n">
-        <v>143.0204048907877</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="28">
@@ -29451,55 +29451,55 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>213.484750524001</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
         <v>67.02998013919</v>
       </c>
       <c r="L28" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889348</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024889</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.484750524001</v>
+        <v>161.4658415316973</v>
       </c>
       <c r="R28" t="n">
-        <v>207.8568012596763</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="30">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.28313363246423</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>145.9229568386895</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7446044746268</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="31">
@@ -29697,46 +29697,46 @@
         <v>67.02998013919</v>
       </c>
       <c r="L31" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M31" t="n">
-        <v>213.4847505240009</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N31" t="n">
-        <v>60.82380230565624</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024889</v>
+        <v>204.7823644014189</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.2169859636892</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R31" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908654</v>
+        <v>213.6262506492486</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>194.1953356407499</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908654</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>88.98605676907961</v>
       </c>
       <c r="C33" t="n">
-        <v>42.08453155797778</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908654</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29910,7 +29910,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>182.746975210997</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29925,19 +29925,19 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3124603908654</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3124603908654</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>150.157554960591</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L34" t="n">
         <v>32.15181624817892</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889348</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N34" t="n">
         <v>16.52015736928138</v>
@@ -29955,25 +29955,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908654</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>241.0097692154761</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562688</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K35" t="n">
         <v>6.727192146301029</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>22.0203413712243</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.7821234236173</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3720284248849</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>236.0383153199327</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
     </row>
     <row r="36">
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>151.0938818689067</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30107,31 +30107,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>164.9090192592951</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30168,7 +30168,7 @@
         <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013919</v>
+        <v>102.586482073037</v>
       </c>
       <c r="L37" t="n">
         <v>32.15181624817892</v>
@@ -30183,7 +30183,7 @@
         <v>37.47888399777683</v>
       </c>
       <c r="P37" t="n">
-        <v>94.03510083409583</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30198,13 +30198,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30241,13 +30241,13 @@
         <v>272.0591682562688</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0591682562688</v>
+        <v>257.0344719699919</v>
       </c>
       <c r="J38" t="n">
         <v>272.0591682562688</v>
       </c>
       <c r="K38" t="n">
-        <v>246.2174229308015</v>
+        <v>267.1880015163297</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,25 +30259,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.8945117006674</v>
       </c>
       <c r="P38" t="n">
         <v>15.09197235108883</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0591682562688</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562688</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
         <v>272.0591682562688</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998193</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562688</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562688</v>
@@ -30302,10 +30302,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30317,7 +30317,7 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
         <v>107.3634103439874</v>
@@ -30344,25 +30344,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>129.3558242864217</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>210.5462974361794</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30408,7 +30408,7 @@
         <v>67.02998013919</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817892</v>
+        <v>67.70831818202583</v>
       </c>
       <c r="M40" t="n">
         <v>25.21686539889348</v>
@@ -30429,7 +30429,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>270.9945463000275</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T40" t="n">
         <v>223.761558450323</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="C41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="D41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="E41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="F41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="G41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="I41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J41" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,40 +30493,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>54.69629248006673</v>
+        <v>218.9244427309477</v>
       </c>
       <c r="O41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30554,7 +30554,7 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439874</v>
@@ -30581,19 +30581,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>160.8624861736033</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.81246274284663</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>170.4005655339901</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30630,16 +30630,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7007749271525</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H43" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I43" t="n">
-        <v>241.009769215476</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>147.1814408562967</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
         <v>67.02998013919</v>
@@ -30666,19 +30666,19 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661806</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
       </c>
       <c r="U43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,22 +30718,22 @@
         <v>241.0097692154761</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459407</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="K44" t="n">
         <v>6.727192146301</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="M44" t="n">
-        <v>230.7411384003038</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>241.0097692154761</v>
       </c>
       <c r="O44" t="n">
-        <v>241.0097692154761</v>
+        <v>94.09732416687331</v>
       </c>
       <c r="P44" t="n">
         <v>241.0097692154761</v>
@@ -30742,13 +30742,13 @@
         <v>241.0097692154761</v>
       </c>
       <c r="R44" t="n">
-        <v>241.0097692154761</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S44" t="n">
         <v>241.0097692154761</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4658813998193</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U44" t="n">
         <v>241.0097692154761</v>
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30830,19 +30830,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0097692154761</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>148.3641800852449</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.9652571105137</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30888,13 +30888,13 @@
         <v>25.21686539889346</v>
       </c>
       <c r="N46" t="n">
-        <v>119.6187917901799</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O46" t="n">
         <v>37.47888399777681</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024888</v>
+        <v>156.0055084718519</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -30903,7 +30903,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661806</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I11" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H13" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014372</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M13" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q13" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H16" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014372</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M16" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H19" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014372</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M19" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H22" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014372</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M22" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q22" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H25" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014372</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M25" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H28" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014372</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M28" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H31" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014372</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M31" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35155,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
@@ -35264,7 +35264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="O9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.069987028295762</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884739</v>
+        <v>83.93522949518506</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05802066359235148</v>
+        <v>171.4210720067669</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258592</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641132</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192471</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019792</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564596</v>
+        <v>88.43652711564594</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5313434880998784</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.69108318109562</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084298</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.22138193462132</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915502</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.32386649840139</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510292</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.908656570159</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.118284013878</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>14.87206828714529</v>
       </c>
       <c r="M13" t="n">
-        <v>37.84583878753951</v>
+        <v>152.9313987541745</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837866</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6693801552912</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528191</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937874</v>
+        <v>50.93127818937873</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884739</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
-        <v>171.421072006767</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258592</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641132</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936129</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019792</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.00511142235734</v>
+        <v>71.00511142235757</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N15" t="n">
         <v>188.4979333192471</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,28 +35778,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5313434880997363</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.69108318109548</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>23.16011281299006</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.47212294084284</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915502</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840124</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.29529608510278</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048891</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541745</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>31.76798984163822</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6696652528191</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937874</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>23.57546622567627</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258592</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641132</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936129</v>
+        <v>128.8704315939846</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,13 +35905,13 @@
         <v>188.4979333192471</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>69.93067636853623</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>47.29712943433466</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N18" t="n">
         <v>188.4979333192471</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>101.1857715011541</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258592</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641132</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936129</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P20" t="n">
-        <v>23.57546622567639</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446175</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>69.93067636853623</v>
@@ -36151,7 +36151,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N21" t="n">
         <v>188.4979333192471</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150835</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>42.11935404133326</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258592</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641132</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936129</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192471</v>
+        <v>57.6003040776085</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93067636853623</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N24" t="n">
         <v>188.4979333192472</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.7031315594068</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583776999</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065869</v>
+        <v>260.6775207065868</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704122</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691447</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933622</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729121</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163412</v>
+        <v>18.60320514163405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N27" t="n">
         <v>206.9747236472315</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36747,10 +36747,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63178245603594</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24514294109201</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.2678851251075</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36771,10 +36771,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26776456031175</v>
+        <v>34.24885556800804</v>
       </c>
       <c r="R28" t="n">
-        <v>4.426840104042181</v>
+        <v>10.0547893683668</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594068</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583776999</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
-        <v>260.6775207065868</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M29" t="n">
         <v>295.1634364704123</v>
@@ -36844,16 +36844,16 @@
         <v>289.5735314691447</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933622</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729121</v>
+        <v>198.3927781729122</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7730134865789</v>
+        <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163408</v>
+        <v>18.60320514163413</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N30" t="n">
         <v>206.9747236472315</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.2678851251075</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>44.30364493637487</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>146.30376550117</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.26776456031178</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262713</v>
+        <v>136.8446316846545</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445643</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734513</v>
+        <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
         <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>270.2841165858936</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602266</v>
@@ -37087,10 +37087,10 @@
         <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534434</v>
+        <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.4309150084985</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>37.56432496028629</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37221,19 +37221,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.45949232290032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.07285280795639</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>83.127574821401</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>189.0955949919718</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.04939904079265</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.1927701825859</v>
+        <v>69.21311155381021</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641129</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514371</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O35" t="n">
         <v>34.56629766936128</v>
       </c>
       <c r="P35" t="n">
-        <v>220.9463429688439</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188468</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782059</v>
+        <v>44.54217369782053</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644952</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361903</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079271</v>
+        <v>16.02470275451585</v>
       </c>
       <c r="J38" t="n">
         <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>239.4902307845004</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="L38" t="n">
         <v>47.1927701825859</v>
@@ -37555,25 +37555,25 @@
         <v>76.08878094514371</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936128</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188468</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>44.54217369782059</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59328685644952</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361903</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>35.55650193384692</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2281502508819</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>234.282577069175</v>
@@ -37789,25 +37789,25 @@
         <v>81.67868594641129</v>
       </c>
       <c r="N41" t="n">
-        <v>130.7850734252104</v>
+        <v>295.0132236760914</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848373</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
         <v>225.9177968643872</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.298032178054</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310915</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702782</v>
+        <v>13.49277465702788</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565676</v>
+        <v>18.54388781565681</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>25.21791528327942</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37926,16 +37926,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.3089942883236</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.15680114751096</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>26.94183327338772</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.571724849295503</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258593</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>312.4198243467151</v>
+        <v>81.67868594641133</v>
       </c>
       <c r="N44" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>128.6636218362346</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643873</v>
@@ -38038,13 +38038,13 @@
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310922</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>13.49277465702788</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54388781565682</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>103.0986344208985</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.52690957160301</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295505</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
